--- a/01Development Library/03Support/01CM/YD_配置项状态报告.xlsx
+++ b/01Development Library/03Support/01CM/YD_配置项状态报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>配置项状态报告</t>
   </si>
@@ -70,7 +70,7 @@
     <t>变更次数</t>
   </si>
   <si>
-    <t>项目计划书</t>
+    <t>项目开发计划</t>
   </si>
   <si>
     <t>V1.0</t>
@@ -86,6 +86,90 @@
   </si>
   <si>
     <t>02Controlled library\01Project Management\01PP</t>
+  </si>
+  <si>
+    <t>项目进度计划</t>
+  </si>
+  <si>
+    <t>2020/6/20</t>
+  </si>
+  <si>
+    <t>项目测试计划</t>
+  </si>
+  <si>
+    <t>张淑清</t>
+  </si>
+  <si>
+    <t>02Controlled library\02Engineering\04VAL</t>
+  </si>
+  <si>
+    <t>配置管理计划</t>
+  </si>
+  <si>
+    <t>02Controlled library\03Support\01CM</t>
+  </si>
+  <si>
+    <t>软件实现归约</t>
+  </si>
+  <si>
+    <t>Build1.0</t>
+  </si>
+  <si>
+    <t>基线</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>03Baseline library\01Engineering\02RD</t>
+  </si>
+  <si>
+    <t>词汇表</t>
+  </si>
+  <si>
+    <t>常俊杰</t>
+  </si>
+  <si>
+    <t>03Baseline library\01Engineering\01RM</t>
+  </si>
+  <si>
+    <t>PPQA计划</t>
+  </si>
+  <si>
+    <t>李轶楠</t>
+  </si>
+  <si>
+    <t>2020/6/28</t>
+  </si>
+  <si>
+    <t>02Controlled library\03Support\01PPQA</t>
+  </si>
+  <si>
+    <t>系统架构设计说明书</t>
+  </si>
+  <si>
+    <t>2020/7/3</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>03Baseline library\01Engineering\03TS\01Analysis Design</t>
+  </si>
+  <si>
+    <t>界面原型</t>
+  </si>
+  <si>
+    <t>概念模型</t>
+  </si>
+  <si>
+    <t>物理模型</t>
+  </si>
+  <si>
+    <t>系统分析设计模型(Rose7.1工件)</t>
+  </si>
+  <si>
+    <t>数据库设计说明书</t>
   </si>
   <si>
     <t>备注：配置项存放路径中显示的为相对路径，其上级目录为：</t>
@@ -99,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -158,6 +242,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -166,6 +301,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -174,28 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +347,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -217,9 +363,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,75 +385,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -329,13 +413,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +521,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,97 +575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,49 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,80 +745,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,6 +772,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -770,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,137 +866,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +1062,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1454,7 +1541,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="12"/>
@@ -1495,7 +1582,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
       <c r="A4" s="6" t="s">
@@ -1522,8 +1609,8 @@
       <c r="J4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="26">
-        <v>2020622</v>
+      <c r="K4" s="27">
+        <v>20200709</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
@@ -1555,7 +1642,7 @@
       <c r="J5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1585,106 +1672,248 @@
       <c r="I6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A7" s="17"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18">
+        <v>44002</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="18">
+        <v>44002</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="32"/>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="18">
+        <v>44010</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="18">
+        <v>44010</v>
+      </c>
+      <c r="H8" s="21">
+        <v>44010</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:11">
-      <c r="A9" s="17"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="32"/>
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="18">
+        <v>44010</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="18">
+        <v>44010</v>
+      </c>
+      <c r="H9" s="21">
+        <v>44010</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:11">
-      <c r="A10" s="17"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="32"/>
+      <c r="D10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="18">
+        <v>44010</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="18">
+        <v>44010</v>
+      </c>
+      <c r="H10" s="21">
+        <v>44010</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="33"/>
+      <c r="D11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="18">
+        <v>44010</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="18">
+        <v>44010</v>
+      </c>
+      <c r="H11" s="21">
+        <v>44010</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="34">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:11">
-      <c r="A12" s="17"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="32"/>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18">
+        <v>44010</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="18">
+        <v>44010</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:11">
-      <c r="A13" s="17"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="18">
+        <v>44015</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="18">
+        <v>44015</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="34">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:11">
-      <c r="A14" s="17"/>
+      <c r="A14" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
@@ -1693,11 +1922,13 @@
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A15" s="17"/>
+      <c r="A15" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1706,11 +1937,13 @@
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="33"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A16" s="17"/>
+      <c r="A16" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
@@ -1719,11 +1952,13 @@
       <c r="G16" s="18"/>
       <c r="H16" s="21"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A17" s="17"/>
+      <c r="A17" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -1732,11 +1967,13 @@
       <c r="G17" s="18"/>
       <c r="H17" s="21"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="32"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A18" s="17"/>
+      <c r="A18" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -1745,11 +1982,11 @@
       <c r="G18" s="18"/>
       <c r="H18" s="21"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="32"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A19" s="17"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -1758,8 +1995,8 @@
       <c r="G19" s="18"/>
       <c r="H19" s="21"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="32"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A20" s="17"/>
@@ -1771,8 +2008,8 @@
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="32"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A21" s="17"/>
@@ -1784,8 +2021,8 @@
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="32"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A22" s="17"/>
@@ -1797,8 +2034,8 @@
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="32"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A23" s="17"/>
@@ -1810,8 +2047,8 @@
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="32"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A24" s="17"/>
@@ -1823,39 +2060,39 @@
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="32"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="3.75" customHeight="1"/>
     <row r="26" s="1" customFormat="1" spans="1:9">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
-      <c r="A27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="A27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="5:5">
-      <c r="E28" s="24" t="s">
-        <v>25</v>
+      <c r="E28" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
